--- a/assets/Year2023text/combined/2023_student_5.xlsx
+++ b/assets/Year2023text/combined/2023_student_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,47 +458,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Idea + Blueprint: I got so intrigued and excited when I first saw the mobius strip at TLTL. </t>
+          <t xml:space="preserve">Legos  magnetiles â makes houses out of the magnetiles for the animals and constructs homes for his stuffies (so once he gets Quake probably will make a home in the mountains for him) RC tanks that shoot each other   Do you like any sports or activities? </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8459420204162598</v>
+        <v>0.5969771146774292</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">It was fascinating given that we can make something bendable out of the rigid wood. </t>
+          <t xml:space="preserve">Ready made, play with it right out of the box  Learning Goals  dexterity with using the remote facts about dino how four legged animals move  Initial Ideas: Robot dino with a joystick and buttons or Microbit? </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6513335704803467</v>
+        <v>0.6440877914428711</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">I realized mobius strip resembles the feather(train) of the male peacock. </t>
+          <t xml:space="preserve">Tilt for movement and a and b buttons for other actions Ask Megan about remote she used Motor to move the legs, maybe servo to move neck/tail Speaker to recite dino facts if time permits, have facts correspond to various parts of the body 3D print dino in pieces so it can move Dinosaur build-kit (not a good idea because child still struggles with assembling objects)  Prep Ideas: Ask him to sketch a design â walk around makerspace Maybe ask him to act out how he imagines the dino? </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,18 +507,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4986065328121185</v>
+        <v>0.5320369601249695</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trial &amp; Error: I had to play with mobius strip svg file to get the exact degree of curve that I wanted for the peacock's feather(train). </t>
+          <t xml:space="preserve">Reflections from the Co-design interview: (Link to detailed reflection report:Â https://docs.google.com/document/d/1-slNq8pzJ_TU8A9ZQyH-3aUrTFY3s7NjmmamDuzLA_4/edit#)  The importance of language use and communication: Our interviewee is a 9-year-old girl who can communicate effectively. </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,18 +527,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6227824687957764</v>
+        <v>0.6244330406188965</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Final Stage: I made three little rectangle-shaped cuts on the edge of the mobius strip to insert it on the side-edge of the peacock's body and stabilize the feather(train). </t>
+          <t xml:space="preserve">So we started to brainstorm some ideas that are possible to fold. </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -547,38 +547,38 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6675859689712524</v>
+        <v>0.5843355059623718</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">But now I became an inventor who could make the toolkit for the animal 3D wooden puzzle and it makes me feel like I--as we--am forging community altogether and empowered/get more agency of belonging. </t>
+          <t xml:space="preserve">The toy should not be too big, portable, and easy to disassemble. </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6502600312232971</v>
+        <v>0.559444785118103</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">As a beginner using design tools on the computer and little experience with the laser cutting machine, I decided to start from a simple design and see how it worked. </t>
+          <t xml:space="preserve">These decisions align with the learning goals as the objectives focus on projecting the imagination with embodied movement, promoting the learning process of the Newtonian world with her drawing and manifesting her intuition with the sense of control. </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4800373315811157</v>
+        <v>0.5052352547645569</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -598,107 +598,107 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">first iteration: I looked at my prototype and observed it was too simple. </t>
+          <t xml:space="preserve">Co-Design Interview Notes: Shima Von Joo: Age 10, 5th grade He showed the toy he currently likes to play with: a spider made of pipe cleaners Favorite animal: Dogs â Boxer or pitbull Favorite subject in school:  Social studies and technology Favorite toys are: Remote control drones, cars, boats He has played with remote controlled cars that are on a magnetic track and goes in a loop. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5056076645851135</v>
+        <v>0.7071622610092163</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">I tested it in the laser cutting machine with cardboard. </t>
+          <t xml:space="preserve">The toy should not be too big, portable, and easy to disassemble. </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8006872534751892</v>
+        <v>0.559444785118103</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">I got more experience using the laser cutting machine. </t>
+          <t xml:space="preserve">These decisions align with the learning goals as the objectives focus on projecting the imagination with embodied movement, promoting the learning process of the Newtonian world with her drawing and manifesting her intuition with the sense of control. </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.488251268863678</v>
+        <v>0.5052352547645569</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">It was really difficult for me to sketch and plan before using the laser cutter because the logic didn't make sense in my head, until I did my first printing iteration. </t>
+          <t xml:space="preserve">So we started to brainstorm some ideas that are possible to fold. </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7734143137931824</v>
+        <v>0.5843355059623718</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">This reflection process of the modifications I could have made with more time created a second lightbulb moment, so now I feel much more equipped to actually design and execute laser cut projects in the future. </t>
+          <t xml:space="preserve">Legos  magnetiles â makes houses out of the magnetiles for the animals and constructs homes for his stuffies (so once he gets Quake probably will make a home in the mountains for him) RC tanks that shoot each other   Do you like any sports or activities? </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7214562892913818</v>
+        <v>0.5969771146774292</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">The illustration technique used in the drawings are painted tissue and collage When all the parts were draw, I laser cut my prototype. </t>
+          <t xml:space="preserve">Ready made, play with it right out of the box  Learning Goals  dexterity with using the remote facts about dino how four legged animals move  Initial Ideas: Robot dino with a joystick and buttons or Microbit? </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -707,18 +707,18 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.72165447473526</v>
+        <v>0.6440877914428711</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">First in cardboard and then on MDF. </t>
+          <t xml:space="preserve">Tilt for movement and a and b buttons for other actions Ask Megan about remote she used Motor to move the legs, maybe servo to move neck/tail Speaker to recite dino facts if time permits, have facts correspond to various parts of the body 3D print dino in pieces so it can move Dinosaur build-kit (not a good idea because child still struggles with assembling objects)  Prep Ideas: Ask him to sketch a design â walk around makerspace Maybe ask him to act out how he imagines the dino? </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -727,118 +727,118 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8469940423965454</v>
+        <v>0.5320369601249695</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becoming familiar with the laser cut was an exciting experience for me. </t>
+          <t xml:space="preserve">For the Dream Toy, she wants a Melody doll made in plastic. </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8969141840934753</v>
+        <v>0.7834055423736572</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">One of my biggest inspirations for my laser cut project was my daughter's book. </t>
+          <t xml:space="preserve">When playing the "happy eliminating" video game, she is not able to observe, think, reflect and find the right strategy to win despite failing the same game multiple times. </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.868074893951416</v>
+        <v>0.6895987987518311</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Overall, it was a fun and satisfying experience to see my designs come to life through the use of the laser cut.</t>
+          <t xml:space="preserve">Co-Design Interview Notes: Shima Von Joo: Age 10, 5th grade He showed the toy he currently likes to play with: a spider made of pipe cleaners Favorite animal: Dogs â Boxer or pitbull Favorite subject in school:  Social studies and technology Favorite toys are: Remote control drones, cars, boats He has played with remote controlled cars that are on a magnetic track and goes in a loop. </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9185230135917664</v>
+        <v>0.7071622610092163</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">I tried sketching their bodies, but their mouth/beak was a problem. </t>
+          <t xml:space="preserve">For the Dream Toy, she wants a Melody doll made in plastic. </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7947002649307251</v>
+        <v>0.7834055423736572</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coincidentally, I found the "donkey wood animal" that belonged to my grandfather. </t>
+          <t xml:space="preserve">When playing the "happy eliminating" video game, she is not able to observe, think, reflect and find the right strategy to win despite failing the same game multiple times. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6359806060791016</v>
+        <v>0.6895987987518311</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Because I was using my computer without a mouse to manipulate the platform tools and wanted the drawing to be as proportionally as possible, I first used geometric squared forms to create the body (Image 1). </t>
+          <t xml:space="preserve">Reflections from the Co-design interview: (Link to detailed reflection report:Â https://docs.google.com/document/d/1-slNq8pzJ_TU8A9ZQyH-3aUrTFY3s7NjmmamDuzLA_4/edit#)  The importance of language use and communication: Our interviewee is a 9-year-old girl who can communicate effectively. </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -847,591 +847,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6952460408210754</v>
+        <v>0.6244330406188965</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So, again, I resort to a physical prototype to help me emulate how the connections would happen (Image 4). </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6166802048683167</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Another problem was the "drawing shadows." Because I used the rubber function to erase the lines or shapes I wasn't going to use, the first print considered these "shadows" and cut them. </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7068364024162292</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Second, the machine was not working, so we used the "new" laser cut. </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7210128903388977</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seeing my draw on the wood on the previous digitally printed page was great, but it didn't work. </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6897234320640564</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The laser did not cut through the wood, making it impossible to disattach the animal body parts without ruining them. </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6691953539848328</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The "old" laser cut was fixed, and it printed perfectly. </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5965055227279663</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">However, once I tried to connect the parts, I realized that the fitting parts were too wide and the legs could pass through them. </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5316996574401855</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I collect rubber duckies and my family calls me ducky, so I knew I wanted to make a duck. </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.4880358576774597</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I googled a few laser cut duck ideas I began by sketching out my ideas of what pieces I would need to make this duck I then brought a rubber duck image into Illustrator and used the pen tool to cut out each piece  Prototype: I cut out my images in Illustrator and decided to make the little "hooks" to hold the wings I then cut everything onto cardboard to test it out Successful score attempt Failed latch attempt  Once I knew my simple design would work, I then began to play around with how I could make the duck's tail wiggle...this was very challenging! </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5034952759742737</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Test: Once I confirmed that all of my pieces would fit, I then painted the wood and began to cut my pieces. </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.6379852294921875</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In order to get the detail on both sides of the duck I had to reflect the body and the wings and then engrave on both sides. </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.7360839247703552</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">However, making measurements exact so that things could slide into place as well as attempting to add an element of difficulty by making the duck wiggle really made me go through many iterations before everything worked. </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.3727069795131683</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For example, when making the second wing I just rotated it 180 degrees at first, but then realized wait...I need this to be a reflection... </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.6024638414382935</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sketches and prototypes  A new skill I learnt:Â How to make a hinge/connecting parts: Make sure the slot that's cut open has the same width as the thickness of the material I'm gonna use  V1-- creating a 3-D dog V2-- calculating to create the connecting pieces V3-- fine tuning... </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.6944023370742798</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My first sketch for the slot kept me up until 4am that day since I was determined to calculate all the length and then turn them into ovals. </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5483562350273132</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I also learnt about the differences in materials --- my pieces were fitting together when printed on cardboard, but not mdf. </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5591772198677063</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My final adjustments were done by trail and error --- cutting and fitting and adjusting and go through the process again. </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.6851016283035278</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inspiration  Drawing: prototype  I chose to create a sea turtle as I grew up in Florida, which is one of the nesting/hatching areas along the Atlantic coast. </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5523353219032288</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drawing: Final  Prototype, cardboard cutout  I realized the importance of printing cardboard prototypes during the process. </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5670074224472046</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For example, in one prototype, the printer cut the pieces instead of engraving, and some of the connecting pieces were too big or too small. </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5404250025749207</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Once I was able to correct all of these issues, I then printed the final draft on plywood. </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.6202520132064819</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reflection Card: I enjoyed this process of working with the laser cutter and creating the omni animal. </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0.8387314677238464</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Got inspirations from different materials (cotton, plush yarn, bell) available in the lab The story of Baa-Baa the sheep Baa-Baa lives in children's mind and imagination. </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.6095729470252991</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It connects to topics like measuring, geometry, balance. </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.7311027050018311</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Time flies so fast and again I don't even realize that I am learning Build self efficacy:Â I made 3 prototypes before the final decision.Â When the prototype finally worked, I felt really happy and had the confidence in myself: I can solve problems.Â Coping with failure and the rewards of figuring everything out can help build children's self efficacy and a positive attitude Social learning: Asked classmates and TA to give feedback to my design along the way. </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.4996609687805176</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inspirations Design &amp; Hand-drawing on Inkspace Final prototype  I added flames  to the base to symbolize the burning fire. </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.6022219061851501</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reflection Card: The biggest takeaway I have from this assignment, besides the lovable firework smell comes from the laser cutter and knowledge and skills of how to use the machine. </t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.8409112691879272</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Take my experience, for instance, I had drawn many drafts on Inkscape before going to the lab, but it wasnât until I actually learned how to use the laser cutter that I realized that many of the ideas I had drafted were hard to implement in the real world, which I hadnât anticipated. </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5124456286430359</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conceiving an idea a hundred times on the computer or in your head is not the same as learning how the machine works, using it and cutting stuff out, and then assessing where it needs improvement. </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5661774873733521</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
     </row>
